--- a/data/trans_dic/VUL_OTRO-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>16,1%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,62</t>
+          <t>0,33; 2,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,1; 25,46</t>
+          <t>0,27; 2,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,39</t>
+          <t>9,31; 26,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,7</t>
+          <t>0,56; 2,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,84; 24,45</t>
+          <t>0,84; 3,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,98</t>
+          <t>10,14; 24,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,83</t>
+          <t>0,64; 2,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,26; 21,89</t>
+          <t>0,67; 2,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,45</t>
+          <t>11,12; 22,58</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,5</t>
+          <t>0,19; 0,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,67</t>
+          <t>0,46; 1,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,62</t>
+          <t>3,32; 6,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,34</t>
+          <t>0,41; 1,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,99</t>
+          <t>0,42; 1,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,91</t>
+          <t>2,94; 5,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,23</t>
+          <t>0,35; 0,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 5,7</t>
+          <t>0,54; 1,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,68</t>
+          <t>3,35; 5,51</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,77%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,86%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>2,27%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2,04%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,57%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,39</t>
+          <t>0,31; 1,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,36</t>
+          <t>0,21; 1,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,9</t>
+          <t>0,87; 3,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,12; 1,1</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 3,82</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,92</t>
+          <t>1,38; 3,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,62</t>
+          <t>0,28; 1,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,04</t>
+          <t>0,1; 0,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,0</t>
+          <t>1,37; 3,13</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0,79%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,73%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>5,37%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,76%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,58%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,19</t>
+          <t>0,33; 0,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,15</t>
+          <t>0,51; 1,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,73</t>
+          <t>3,97; 7,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,12</t>
+          <t>0,49; 1,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,05</t>
+          <t>0,46; 1,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,9</t>
+          <t>4,11; 6,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,01</t>
+          <t>0,46; 0,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 6,55</t>
+          <t>0,57; 1,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,74</t>
+          <t>4,36; 6,5</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vulnerabilidad ante otros problemas de salud mental</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15812</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4908</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19447</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2506</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6748</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>35259</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>291; 1780</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>590; 5015</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9172; 26525</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>716; 3614</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2312; 9577</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12219; 29175</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1383; 4663</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3299; 11351</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24364; 49454</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1635</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7627</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16680</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2934</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6856</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14811</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4569</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14482</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>31490</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>860; 3295</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3971; 12714</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11798; 22684</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1788; 4798</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3667; 13050</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10425; 20975</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3128; 6641</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9406; 22097</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23797; 39091</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2532</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6413</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2532</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10379</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>465; 2796</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>801; 7191</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1955; 7928</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>226; 2135</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1141</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3891; 10501</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>954; 3802</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>804; 7465</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6933; 15881</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11999</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36458</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5477</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11764</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>40671</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9101</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23763</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>77129</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2259; 5423</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7375; 18082</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26921; 51018</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3726; 8195</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7127; 18661</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>31160; 52629</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6684; 12151</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17057; 32593</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>62692; 93347</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_OTRO-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Estudios-trans_dic.xlsx
@@ -926,7 +926,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0; 1141</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">

--- a/data/trans_dic/VUL_OTRO-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_OTRO-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,03</t>
+          <t>0,54; 3,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,31; 26,91</t>
+          <t>9,36; 26,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,83</t>
+          <t>0,3; 1,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,14; 24,22</t>
+          <t>10,12; 24,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,16</t>
+          <t>0,56; 1,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,12; 22,58</t>
+          <t>11,54; 21,89</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,73</t>
+          <t>0,21; 0,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,39</t>
+          <t>3,24; 6,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,11</t>
+          <t>0,5; 1,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,92</t>
+          <t>2,97; 6,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,75</t>
+          <t>0,41; 0,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,51</t>
+          <t>3,52; 5,7</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,85</t>
+          <t>0,24; 1,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,53</t>
+          <t>0,87; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,1</t>
+          <t>0,07; 0,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,71</t>
+          <t>1,33; 3,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,1</t>
+          <t>0,22; 0,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,13</t>
+          <t>1,36; 3,11</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,78</t>
+          <t>0,38; 0,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1026,12 +1026,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,52</t>
+          <t>4,02; 7,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,09</t>
+          <t>0,42; 0,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1041,12 +1041,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,94</t>
+          <t>4,01; 7,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,84</t>
+          <t>0,45; 0,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 6,5</t>
+          <t>4,39; 6,6</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>897</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>291; 1780</t>
+          <t>443; 2488</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9172; 26525</t>
+          <t>9223; 26596</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>716; 3614</t>
+          <t>364; 1761</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -1347,12 +1347,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12219; 29175</t>
+          <t>12187; 29797</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1383; 4663</t>
+          <t>1136; 3591</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24364; 49454</t>
+          <t>25270; 47931</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>3438</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4569</t>
+          <t>5423</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>860; 3295</t>
+          <t>975; 3639</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11798; 22684</t>
+          <t>11515; 23447</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1788; 4798</t>
+          <t>2234; 5563</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1510,12 +1510,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10425; 20975</t>
+          <t>10534; 21547</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3128; 6641</t>
+          <t>3687; 8067</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23797; 39091</t>
+          <t>24955; 40421</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>597</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>465; 2796</t>
+          <t>424; 2408</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1955; 7928</t>
+          <t>1952; 7263</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>226; 2135</t>
+          <t>153; 1432</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3891; 10501</t>
+          <t>3766; 11061</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>954; 3802</t>
+          <t>894; 3026</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6933; 15881</t>
+          <t>6919; 15789</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>4932</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9101</t>
+          <t>9144</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2259; 5423</t>
+          <t>2739; 6489</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26921; 51018</t>
+          <t>27258; 49700</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3726; 8195</t>
+          <t>3354; 7162</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1836,12 +1836,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31160; 52629</t>
+          <t>30383; 53825</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6684; 12151</t>
+          <t>6749; 12244</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>62692; 93347</t>
+          <t>63041; 94793</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/VUL_OTRO-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>16,04%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>1,41%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,85%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>16,04%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>16,14%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,74%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,79%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>16,14%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>1,01%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>16,1%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>9,36; 26,99</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 2,32</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,54; 3,03</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 2,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>9,36; 26,99</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>10,12; 24,74</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 3,5</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,3; 1,45</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 3,5</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>10,12; 24,74</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>11,54; 21,89</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 2,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,56; 1,76</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 2,32</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>11,54; 21,89</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,43%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,77%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,18%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,6%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,24; 6,6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 1,47</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,21; 0,79</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 1,47</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,24; 6,6</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>2,97; 6,08</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 1,5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,5; 1,25</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 1,5</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 6,08</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>3,52; 5,7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 1,28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,41; 0,89</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 1,28</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>3,52; 5,7</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,61%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,26%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,41%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,32%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,87; 3,23</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 1,9</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,24; 1,37</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 1,9</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 3,23</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,33; 3,91</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,07; 0,63</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 3,91</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1,36; 3,11</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 0,94</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,22; 0,75</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 0,94</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,36; 3,11</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,59%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,38%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,62%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>5,37%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>0,6%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,37%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,02; 7,33</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 1,24</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,38; 0,9</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 1,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,02; 7,33</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>4,01; 7,1</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 1,2</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0,42; 0,9</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 1,2</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,01; 7,1</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>4,39; 6,6</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 1,08</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>0,45; 0,81</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 1,08</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>4,39; 6,6</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>14</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>15812</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1163</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1840</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>15812</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>19447</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4908</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>897</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>4908</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>19447</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>35259</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6748</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>2060</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>6748</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>35259</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>9223; 26596</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>590; 5015</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>443; 2488</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>590; 5015</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9223; 26596</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>12187; 29797</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2312; 9577</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>364; 1761</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2312; 9577</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>12187; 29797</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>25270; 47931</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3299; 11351</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>1136; 3591</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3299; 11351</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>25270; 47931</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>31</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>67</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>16680</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7627</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1984</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7627</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>16680</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>14811</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6856</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3438</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6856</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>14811</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>31490</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14482</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>5423</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>14482</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>31490</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>11515; 23447</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3971; 12714</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>975; 3639</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3971; 12714</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>11515; 23447</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>10534; 21547</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3667; 13050</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2234; 5563</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3667; 13050</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>10534; 21547</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>24955; 40421</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9406; 22097</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>3687; 8067</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>9406; 22097</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>24955; 40421</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2532</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6413</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10379</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>2532</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3966</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>597</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6413</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>1662</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2532</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>10379</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1952; 7263</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>801; 7191</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>424; 2408</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>801; 7191</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1952; 7263</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>3766; 11061</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>153; 1432</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3766; 11061</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>6919; 15789</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>804; 7465</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>894; 3026</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>804; 7465</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6919; 15789</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>56</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>148</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>36458</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11999</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4212</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>11999</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>36458</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>40671</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11764</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>4932</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>11764</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>40671</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>77129</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23763</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>9144</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>23763</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>77129</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>27258; 49700</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7375; 18082</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>2739; 6489</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7375; 18082</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>27258; 49700</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>30383; 53825</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7127; 18661</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>3354; 7162</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>7127; 18661</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>30383; 53825</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>63041; 94793</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17057; 32593</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>6749; 12244</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>17057; 32593</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>63041; 94793</t>
         </is>
       </c>
     </row>
